--- a/multi-material/input.xlsx
+++ b/multi-material/input.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\single-material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\multi-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12920C16-50B3-4D90-B1E3-B584823F2A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C471DD-D6DF-4B5F-9427-671EA9B8E3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
     <sheet name="BC" sheetId="1" r:id="rId2"/>
     <sheet name="Preserved" sheetId="3" r:id="rId3"/>
+    <sheet name="Materials" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>ForceX</t>
   </si>
@@ -111,6 +112,39 @@
   </si>
   <si>
     <t>Density</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Elasticity</t>
+  </si>
+  <si>
+    <t>Poisson</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -505,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -513,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -537,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -735,10 +769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6D0551-57CC-4FE8-94A6-D48EF408F42E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,42 +799,103 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8494DD00-677A-4A8E-A2B4-E974AF694B52}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/multi-material/input.xlsx
+++ b/multi-material/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\multi-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C471DD-D6DF-4B5F-9427-671EA9B8E3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A65A8F-EFD3-4E54-BCDD-D6B2B31278D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>ForceX</t>
   </si>
@@ -132,19 +132,25 @@
     <t>w</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>Price</t>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -188,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +204,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,7 +526,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,10 +816,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8494DD00-677A-4A8E-A2B4-E974AF694B52}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,7 +838,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
@@ -842,8 +851,8 @@
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>1E-3</v>
+      <c r="C2" s="5">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -857,13 +866,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C3" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="2">
         <v>0.3</v>
@@ -872,27 +881,47 @@
         <v>0.5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D4" s="2">
         <v>0.3</v>
       </c>
       <c r="E4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/multi-material/input.xlsx
+++ b/multi-material/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\multi-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A65A8F-EFD3-4E54-BCDD-D6B2B31278D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCFE759-F29E-4186-87A8-3282B9872C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
@@ -525,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -548,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8494DD00-677A-4A8E-A2B4-E974AF694B52}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/multi-material/input.xlsx
+++ b/multi-material/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\multi-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCFE759-F29E-4186-87A8-3282B9872C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C6CC8C-5568-4375-883E-3F5D46287AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">

--- a/multi-material/input.xlsx
+++ b/multi-material/input.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\multi-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C6CC8C-5568-4375-883E-3F5D46287AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A967E3B9-4B78-4FCA-AADF-E85BFD23BEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
-    <sheet name="BC" sheetId="1" r:id="rId2"/>
+    <sheet name="BC" sheetId="5" r:id="rId2"/>
     <sheet name="Preserved" sheetId="3" r:id="rId3"/>
     <sheet name="Materials" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>ForceX</t>
   </si>
@@ -45,18 +45,6 @@
     <t>ForceY</t>
   </si>
   <si>
-    <t>StartX</t>
-  </si>
-  <si>
-    <t>StartY</t>
-  </si>
-  <si>
-    <t>EndX</t>
-  </si>
-  <si>
-    <t>EndY</t>
-  </si>
-  <si>
     <t>NumElX</t>
   </si>
   <si>
@@ -87,18 +75,6 @@
     <t>MaxIteration</t>
   </si>
   <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>Bottom</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
     <t>Option</t>
   </si>
   <si>
@@ -151,6 +127,27 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>StartPosition</t>
+  </si>
+  <si>
+    <t>EndPosition</t>
+  </si>
+  <si>
+    <t>0, 0</t>
+  </si>
+  <si>
+    <t>1, 0</t>
+  </si>
+  <si>
+    <t>0.25, 0</t>
+  </si>
+  <si>
+    <t>0.50, 0</t>
+  </si>
+  <si>
+    <t>0.75, 0</t>
   </si>
 </sst>
 </file>
@@ -525,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,15 +534,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>200</v>
@@ -553,7 +550,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>100</v>
@@ -561,7 +558,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>0.4</v>
@@ -569,7 +566,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -577,7 +574,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -585,7 +582,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>500</v>
@@ -593,7 +590,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>8.75</v>
@@ -601,7 +598,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>0.5</v>
@@ -609,7 +606,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -617,7 +614,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>0.2</v>
@@ -630,52 +627,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FD6F66-486A-43CF-96DE-A1602AFF4D49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8100CC4B-31CB-4D50-BDFF-2909CA329C6D}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.5546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="8.33203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="2" width="13.33203125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -683,96 +674,65 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>-1</v>
-      </c>
-    </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -781,32 +741,29 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="2"/>
+    <col min="1" max="2" width="13.33203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="2"/>
     <col min="5" max="5" width="9.44140625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -826,27 +783,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -861,12 +818,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>0.4</v>
@@ -881,12 +838,12 @@
         <v>0.5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
         <v>0.7</v>
@@ -901,12 +858,12 @@
         <v>0.8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -921,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/multi-material/input.xlsx
+++ b/multi-material/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\multi-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A967E3B9-4B78-4FCA-AADF-E85BFD23BEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218DD534-2E1B-4FE8-89F4-36612A858EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Elasticity</t>
   </si>
   <si>
-    <t>Poisson</t>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>k</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -148,6 +142,12 @@
   </si>
   <si>
     <t>0.75, 0</t>
+  </si>
+  <si>
+    <t>CostFraction</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -566,15 +566,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -582,42 +582,50 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>8.75</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>0.5</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.2</v>
+      <c r="B12" s="2">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
@@ -630,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8100CC4B-31CB-4D50-BDFF-2909CA329C6D}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,10 +650,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -663,10 +671,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -677,10 +685,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -691,10 +699,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -705,10 +713,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -719,10 +727,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -754,10 +762,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
@@ -773,15 +781,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8494DD00-677A-4A8E-A2B4-E974AF694B52}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -792,18 +800,15 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -811,19 +816,16 @@
       <c r="C2" s="5">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="5">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>0.4</v>
@@ -832,18 +834,15 @@
         <v>0.2</v>
       </c>
       <c r="D3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E3" s="2">
         <v>0.5</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <v>0.7</v>
@@ -852,18 +851,15 @@
         <v>0.6</v>
       </c>
       <c r="D4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="2">
         <v>0.8</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -872,13 +868,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
